--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,6 +29,15 @@
     <t>External Help</t>
   </si>
   <si>
+    <t>New-PWSHModuleList</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Show-PWSHModuleList</t>
+  </si>
+  <si>
     <t>Add-PWSHModule.md</t>
   </si>
   <si>
@@ -78,6 +87,15 @@
   </si>
   <si>
     <t>Show-PWSHModule.md - ### -ShowProjectURI - {{ Fill ShowProjectURI Description }}</t>
+  </si>
+  <si>
+    <t>Not Copied</t>
+  </si>
+  <si>
+    <t>New-PWSHModuleConfigFile</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -129,7 +147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -173,7 +191,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -181,10 +199,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -192,10 +210,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -203,7 +221,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
@@ -214,10 +232,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -225,10 +243,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -236,10 +254,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -247,10 +265,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -258,7 +276,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>18</v>
@@ -269,7 +287,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>19</v>
@@ -280,14 +298,47 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C13"/>
+  <autoFilter ref="A1:C16"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$14</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,58 +29,46 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>New-PWSHModuleList</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Show-PWSHModuleList</t>
-  </si>
-  <si>
-    <t>Add-PWSHModule.md</t>
-  </si>
-  <si>
-    <t>Add-PWSHModule.md - ### -Path - {{ Fill Path Description }}</t>
-  </si>
-  <si>
     <t>Install-PWSHModule.md</t>
   </si>
   <si>
-    <t>Install-PWSHModule.md - ### -Path - {{ Fill Path Description }}</t>
+    <t>Install-PWSHModule.md - ### -GitHubUserID - {{ Fill GitHubUserID Description }}</t>
   </si>
   <si>
     <t>Remove-PWSHModule.md</t>
   </si>
   <si>
-    <t>Remove-PWSHModule.md - ### -Path - {{ Fill Path Description }}</t>
+    <t>Remove-PWSHModule.md - ### -GitHubUserID - {{ Fill GitHubUserID Description }}</t>
   </si>
   <si>
     <t>Show-PWSHModule.md</t>
   </si>
   <si>
-    <t>Show-PWSHModule.md - ### -Path - {{ Fill Path Description }}</t>
-  </si>
-  <si>
-    <t>Add-PWSHModule.md - ### -ModuleName - {{ Fill ModuleName Description }}</t>
+    <t>Show-PWSHModule.md - ### -GitHubUserID - {{ Fill GitHubUserID Description }}</t>
+  </si>
+  <si>
+    <t>Install-PWSHModule.md - ### -GitHubToken - {{ Fill GitHubToken Description }}</t>
+  </si>
+  <si>
+    <t>Remove-PWSHModule.md - ### -GitHubToken - {{ Fill GitHubToken Description }}</t>
+  </si>
+  <si>
+    <t>Show-PWSHModule.md - ### -GitHubToken - {{ Fill GitHubToken Description }}</t>
+  </si>
+  <si>
+    <t>Install-PWSHModule.md - ### -ListName - {{ Fill ListName Description }}</t>
+  </si>
+  <si>
+    <t>Remove-PWSHModule.md - ### -ListName - {{ Fill ListName Description }}</t>
+  </si>
+  <si>
+    <t>Show-PWSHModule.md - ### -Listname - {{ Fill Listname Description }}</t>
+  </si>
+  <si>
+    <t>Install-PWSHModule.md - ### -Scope - {{ Fill Scope Description }}</t>
   </si>
   <si>
     <t>Remove-PWSHModule.md - ### -ModuleName - {{ Fill ModuleName Description }}</t>
-  </si>
-  <si>
-    <t>Add-PWSHModule.md - ### -Repository - {{ Fill Repository Description }}</t>
-  </si>
-  <si>
-    <t>Add-PWSHModule.md - ### -RequiredVersion - {{ Fill RequiredVersion Description }}</t>
-  </si>
-  <si>
-    <t>Install-PWSHModule.md - ### -Scope - {{ Fill Scope Description }}</t>
-  </si>
-  <si>
-    <t>New-PWSHModuleConfigFile.md</t>
-  </si>
-  <si>
-    <t>New-PWSHModuleConfigFile.md - ### -Description - {{ Fill Description Description }}</t>
   </si>
   <si>
     <t>Show-PWSHModule.md - ### -AsTable - {{ Fill AsTable Description }}</t>
@@ -157,7 +145,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="30.3255462646484" customWidth="1"/>
+    <col min="2" max="2" width="24.8235015869141" customWidth="1"/>
     <col min="3" max="3" width="75.5634307861328" customWidth="1"/>
   </cols>
   <sheetData>
@@ -191,7 +179,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -199,10 +187,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -210,7 +198,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
@@ -221,10 +209,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -232,10 +220,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -243,10 +231,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -254,10 +242,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -265,10 +253,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -276,10 +264,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -287,10 +275,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -298,10 +286,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -309,10 +297,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -320,25 +308,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C16"/>
+  <autoFilter ref="A1:C14"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,10 +29,10 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Install-PWSHModule.md</t>
+    <t>Save-PWSHModule</t>
   </si>
   <si>
-    <t>Install-PWSHModule.md - ### -GitHubUserID - {{ Fill GitHubUserID Description }}</t>
+    <t>Did not create the .md file</t>
   </si>
   <si>
     <t>Remove-PWSHModule.md</t>
@@ -41,49 +41,13 @@
     <t>Remove-PWSHModule.md - ### -GitHubUserID - {{ Fill GitHubUserID Description }}</t>
   </si>
   <si>
-    <t>Show-PWSHModule.md</t>
-  </si>
-  <si>
-    <t>Show-PWSHModule.md - ### -GitHubUserID - {{ Fill GitHubUserID Description }}</t>
-  </si>
-  <si>
-    <t>Install-PWSHModule.md - ### -GitHubToken - {{ Fill GitHubToken Description }}</t>
-  </si>
-  <si>
     <t>Remove-PWSHModule.md - ### -GitHubToken - {{ Fill GitHubToken Description }}</t>
-  </si>
-  <si>
-    <t>Show-PWSHModule.md - ### -GitHubToken - {{ Fill GitHubToken Description }}</t>
-  </si>
-  <si>
-    <t>Install-PWSHModule.md - ### -ListName - {{ Fill ListName Description }}</t>
   </si>
   <si>
     <t>Remove-PWSHModule.md - ### -ListName - {{ Fill ListName Description }}</t>
   </si>
   <si>
-    <t>Show-PWSHModule.md - ### -Listname - {{ Fill Listname Description }}</t>
-  </si>
-  <si>
-    <t>Install-PWSHModule.md - ### -Scope - {{ Fill Scope Description }}</t>
-  </si>
-  <si>
     <t>Remove-PWSHModule.md - ### -ModuleName - {{ Fill ModuleName Description }}</t>
-  </si>
-  <si>
-    <t>Show-PWSHModule.md - ### -AsTable - {{ Fill AsTable Description }}</t>
-  </si>
-  <si>
-    <t>Show-PWSHModule.md - ### -ShowProjectURI - {{ Fill ShowProjectURI Description }}</t>
-  </si>
-  <si>
-    <t>Not Copied</t>
-  </si>
-  <si>
-    <t>New-PWSHModuleConfigFile</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -135,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -146,7 +110,7 @@
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
     <col min="2" max="2" width="24.8235015869141" customWidth="1"/>
-    <col min="3" max="3" width="75.5634307861328" customWidth="1"/>
+    <col min="3" max="3" width="73.8774337768555" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -187,10 +151,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -198,10 +162,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -212,121 +176,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C14"/>
+  <autoFilter ref="A1:C6"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,19 +29,13 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Save-PWSHModule</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
-  </si>
-  <si>
     <t>Remove-PWSHModule.md</t>
   </si>
   <si>
-    <t>Remove-PWSHModule.md - ### -GitHubUserID - {{ Fill GitHubUserID Description }}</t>
+    <t>Remove-PWSHModule.md - ### -GitHubToken - {{ Fill GitHubToken Description }}</t>
   </si>
   <si>
-    <t>Remove-PWSHModule.md - ### -GitHubToken - {{ Fill GitHubToken Description }}</t>
+    <t>Remove-PWSHModule.md - ### -GitHubUserID - {{ Fill GitHubUserID Description }}</t>
   </si>
   <si>
     <t>Remove-PWSHModule.md - ### -ListName - {{ Fill ListName Description }}</t>
@@ -99,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -108,9 +102,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="24.8235015869141" customWidth="1"/>
-    <col min="3" max="3" width="73.8774337768555" customWidth="1"/>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="24.823501586914062" customWidth="1"/>
+    <col min="3" max="3" width="73.87743377685547" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -140,10 +134,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -151,10 +145,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -162,25 +156,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C6"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>